--- a/MARKSHEET.xlsx
+++ b/MARKSHEET.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SWAPNIL DATA\ARC ACEDMY\PRACTISE\GITPRACTISE\Repos3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SWAPNIL DATA\ARC ACEDMY\PRACTISE\GITPRACTISE\Reponame1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3610115F-2379-4114-8019-97A05982C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17503230-AA01-4D73-BF6A-B0E39FEDD432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Swapnil progress sheet</t>
   </si>
@@ -55,6 +64,9 @@
   </si>
   <si>
     <t>Marks obtained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage </t>
   </si>
 </sst>
 </file>
@@ -409,20 +421,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -433,8 +448,11 @@
         <v>9</v>
       </c>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -445,8 +463,12 @@
         <v>87</v>
       </c>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="4">
+        <f>D6/C6*100</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -457,8 +479,12 @@
         <v>67</v>
       </c>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="4">
+        <f t="shared" ref="F7:F11" si="0">D7/C7*100</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -469,8 +495,12 @@
         <v>87</v>
       </c>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -481,8 +511,12 @@
         <v>83</v>
       </c>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -493,8 +527,12 @@
         <v>87</v>
       </c>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -505,6 +543,10 @@
         <v>89</v>
       </c>
       <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
